--- a/projetos excel/Exercício 08.05.xlsx
+++ b/projetos excel/Exercício 08.05.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="9" r:id="rId1"/>
@@ -12179,11 +12179,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -12789,8 +12789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M618"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13845,7 +13845,7 @@
       <c r="H33" s="31" t="s">
         <v>664</v>
       </c>
-      <c r="J33" s="63" t="s">
+      <c r="J33" s="62" t="s">
         <v>1</v>
       </c>
       <c r="K33" s="45" t="s">
@@ -29369,7 +29369,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:H1"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1 K9 K17 K25 K33 K41 K49 K57 K65 K73 K81">
       <formula1>$A$2:$A$618</formula1>
     </dataValidation>
@@ -36996,7 +36996,7 @@
   <dimension ref="A1:H618"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37035,7 +37035,7 @@
         <v>5750</v>
       </c>
       <c r="C2" s="10" t="str">
-        <f>IF(B2&lt;8250,"Nível 1","Nível2")</f>
+        <f>IF(B2&lt;8250,"Nível 1","Nível 2")</f>
         <v>Nível 1</v>
       </c>
       <c r="F2" s="4">
@@ -37056,7 +37056,7 @@
         <v>5000</v>
       </c>
       <c r="C3" s="10" t="str">
-        <f t="shared" ref="C3:C66" si="0">IF(B3&lt;8250,"Nível 1","Nível2")</f>
+        <f t="shared" ref="C3:C66" si="0">IF(B3&lt;8250,"Nível 1","Nível 2")</f>
         <v>Nível 1</v>
       </c>
       <c r="F3" s="4">
@@ -37093,7 +37093,7 @@
       </c>
       <c r="C5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="6"/>
@@ -37120,7 +37120,7 @@
       </c>
       <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -37132,7 +37132,7 @@
       </c>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -37156,7 +37156,7 @@
       </c>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -37180,7 +37180,7 @@
       </c>
       <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -37204,7 +37204,7 @@
       </c>
       <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -37216,7 +37216,7 @@
       </c>
       <c r="C15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -37240,7 +37240,7 @@
       </c>
       <c r="C17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -37264,7 +37264,7 @@
       </c>
       <c r="C19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -37288,7 +37288,7 @@
       </c>
       <c r="C21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -37324,7 +37324,7 @@
       </c>
       <c r="C24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -37384,7 +37384,7 @@
       </c>
       <c r="C29" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -37432,7 +37432,7 @@
       </c>
       <c r="C33" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -37444,7 +37444,7 @@
       </c>
       <c r="C34" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -37456,7 +37456,7 @@
       </c>
       <c r="C35" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -37468,7 +37468,7 @@
       </c>
       <c r="C36" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -37504,7 +37504,7 @@
       </c>
       <c r="C39" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -37600,7 +37600,7 @@
       </c>
       <c r="C47" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -37612,7 +37612,7 @@
       </c>
       <c r="C48" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -37696,7 +37696,7 @@
       </c>
       <c r="C55" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -37708,7 +37708,7 @@
       </c>
       <c r="C56" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -37732,7 +37732,7 @@
       </c>
       <c r="C58" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -37839,7 +37839,7 @@
         <v>6250</v>
       </c>
       <c r="C67" s="10" t="str">
-        <f t="shared" ref="C67:C130" si="1">IF(B67&lt;8250,"Nível 1","Nível2")</f>
+        <f t="shared" ref="C67:C130" si="1">IF(B67&lt;8250,"Nível 1","Nível 2")</f>
         <v>Nível 1</v>
       </c>
     </row>
@@ -37864,7 +37864,7 @@
       </c>
       <c r="C69" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -37924,7 +37924,7 @@
       </c>
       <c r="C74" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -37936,7 +37936,7 @@
       </c>
       <c r="C75" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -37948,7 +37948,7 @@
       </c>
       <c r="C76" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -37984,7 +37984,7 @@
       </c>
       <c r="C79" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -38020,7 +38020,7 @@
       </c>
       <c r="C82" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -38044,7 +38044,7 @@
       </c>
       <c r="C84" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -38104,7 +38104,7 @@
       </c>
       <c r="C89" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -38116,7 +38116,7 @@
       </c>
       <c r="C90" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -38152,7 +38152,7 @@
       </c>
       <c r="C93" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -38164,7 +38164,7 @@
       </c>
       <c r="C94" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -38212,7 +38212,7 @@
       </c>
       <c r="C98" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -38272,7 +38272,7 @@
       </c>
       <c r="C103" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -38284,7 +38284,7 @@
       </c>
       <c r="C104" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -38344,7 +38344,7 @@
       </c>
       <c r="C109" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -38380,7 +38380,7 @@
       </c>
       <c r="C112" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -38416,7 +38416,7 @@
       </c>
       <c r="C115" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -38440,7 +38440,7 @@
       </c>
       <c r="C117" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -38452,7 +38452,7 @@
       </c>
       <c r="C118" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -38524,7 +38524,7 @@
       </c>
       <c r="C124" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -38548,7 +38548,7 @@
       </c>
       <c r="C126" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -38560,7 +38560,7 @@
       </c>
       <c r="C127" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -38607,8 +38607,8 @@
         <v>12750</v>
       </c>
       <c r="C131" s="10" t="str">
-        <f t="shared" ref="C131:C194" si="2">IF(B131&lt;8250,"Nível 1","Nível2")</f>
-        <v>Nível2</v>
+        <f t="shared" ref="C131:C194" si="2">IF(B131&lt;8250,"Nível 1","Nível 2")</f>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -38620,7 +38620,7 @@
       </c>
       <c r="C132" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -38668,7 +38668,7 @@
       </c>
       <c r="C136" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -38680,7 +38680,7 @@
       </c>
       <c r="C137" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -38704,7 +38704,7 @@
       </c>
       <c r="C139" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -38764,7 +38764,7 @@
       </c>
       <c r="C144" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -38788,7 +38788,7 @@
       </c>
       <c r="C146" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -38920,7 +38920,7 @@
       </c>
       <c r="C157" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -38944,7 +38944,7 @@
       </c>
       <c r="C159" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -38956,7 +38956,7 @@
       </c>
       <c r="C160" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -38968,7 +38968,7 @@
       </c>
       <c r="C161" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -39064,7 +39064,7 @@
       </c>
       <c r="C169" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -39124,7 +39124,7 @@
       </c>
       <c r="C174" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -39136,7 +39136,7 @@
       </c>
       <c r="C175" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -39148,7 +39148,7 @@
       </c>
       <c r="C176" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -39208,7 +39208,7 @@
       </c>
       <c r="C181" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -39220,7 +39220,7 @@
       </c>
       <c r="C182" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -39268,7 +39268,7 @@
       </c>
       <c r="C186" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -39304,7 +39304,7 @@
       </c>
       <c r="C189" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -39316,7 +39316,7 @@
       </c>
       <c r="C190" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -39328,7 +39328,7 @@
       </c>
       <c r="C191" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -39340,7 +39340,7 @@
       </c>
       <c r="C192" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -39375,8 +39375,8 @@
         <v>9750</v>
       </c>
       <c r="C195" s="10" t="str">
-        <f t="shared" ref="C195:C258" si="3">IF(B195&lt;8250,"Nível 1","Nível2")</f>
-        <v>Nível2</v>
+        <f t="shared" ref="C195:C258" si="3">IF(B195&lt;8250,"Nível 1","Nível 2")</f>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -39424,7 +39424,7 @@
       </c>
       <c r="C199" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -39436,7 +39436,7 @@
       </c>
       <c r="C200" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -39460,7 +39460,7 @@
       </c>
       <c r="C202" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -39472,7 +39472,7 @@
       </c>
       <c r="C203" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -39484,7 +39484,7 @@
       </c>
       <c r="C204" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -39496,7 +39496,7 @@
       </c>
       <c r="C205" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -39568,7 +39568,7 @@
       </c>
       <c r="C211" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
@@ -39604,7 +39604,7 @@
       </c>
       <c r="C214" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -39640,7 +39640,7 @@
       </c>
       <c r="C217" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -39652,7 +39652,7 @@
       </c>
       <c r="C218" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -39664,7 +39664,7 @@
       </c>
       <c r="C219" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -39712,7 +39712,7 @@
       </c>
       <c r="C223" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -39736,7 +39736,7 @@
       </c>
       <c r="C225" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -39784,7 +39784,7 @@
       </c>
       <c r="C229" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -39796,7 +39796,7 @@
       </c>
       <c r="C230" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -39856,7 +39856,7 @@
       </c>
       <c r="C235" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -39868,7 +39868,7 @@
       </c>
       <c r="C236" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -39880,7 +39880,7 @@
       </c>
       <c r="C237" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -39916,7 +39916,7 @@
       </c>
       <c r="C240" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -39952,7 +39952,7 @@
       </c>
       <c r="C243" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
@@ -39964,7 +39964,7 @@
       </c>
       <c r="C244" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
@@ -39988,7 +39988,7 @@
       </c>
       <c r="C246" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
@@ -40048,7 +40048,7 @@
       </c>
       <c r="C251" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -40143,7 +40143,7 @@
         <v>7250</v>
       </c>
       <c r="C259" s="10" t="str">
-        <f t="shared" ref="C259:C322" si="4">IF(B259&lt;8250,"Nível 1","Nível2")</f>
+        <f t="shared" ref="C259:C322" si="4">IF(B259&lt;8250,"Nível 1","Nível 2")</f>
         <v>Nível 1</v>
       </c>
     </row>
@@ -40180,7 +40180,7 @@
       </c>
       <c r="C262" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -40276,7 +40276,7 @@
       </c>
       <c r="C270" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
@@ -40288,7 +40288,7 @@
       </c>
       <c r="C271" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
@@ -40312,7 +40312,7 @@
       </c>
       <c r="C273" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
@@ -40324,7 +40324,7 @@
       </c>
       <c r="C274" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
@@ -40360,7 +40360,7 @@
       </c>
       <c r="C277" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
@@ -40372,7 +40372,7 @@
       </c>
       <c r="C278" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
@@ -40480,7 +40480,7 @@
       </c>
       <c r="C287" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
@@ -40504,7 +40504,7 @@
       </c>
       <c r="C289" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
@@ -40528,7 +40528,7 @@
       </c>
       <c r="C291" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
@@ -40540,7 +40540,7 @@
       </c>
       <c r="C292" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
@@ -40564,7 +40564,7 @@
       </c>
       <c r="C294" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
@@ -40576,7 +40576,7 @@
       </c>
       <c r="C295" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
@@ -40588,7 +40588,7 @@
       </c>
       <c r="C296" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
@@ -40612,7 +40612,7 @@
       </c>
       <c r="C298" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.25">
@@ -40624,7 +40624,7 @@
       </c>
       <c r="C299" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.25">
@@ -40696,7 +40696,7 @@
       </c>
       <c r="C305" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.25">
@@ -40744,7 +40744,7 @@
       </c>
       <c r="C309" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.25">
@@ -40756,7 +40756,7 @@
       </c>
       <c r="C310" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.25">
@@ -40816,7 +40816,7 @@
       </c>
       <c r="C315" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
@@ -40840,7 +40840,7 @@
       </c>
       <c r="C317" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.25">
@@ -40852,7 +40852,7 @@
       </c>
       <c r="C318" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.25">
@@ -40911,8 +40911,8 @@
         <v>9000</v>
       </c>
       <c r="C323" s="10" t="str">
-        <f t="shared" ref="C323:C386" si="5">IF(B323&lt;8250,"Nível 1","Nível2")</f>
-        <v>Nível2</v>
+        <f t="shared" ref="C323:C386" si="5">IF(B323&lt;8250,"Nível 1","Nível 2")</f>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.25">
@@ -40924,7 +40924,7 @@
       </c>
       <c r="C324" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.25">
@@ -40936,7 +40936,7 @@
       </c>
       <c r="C325" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.25">
@@ -40984,7 +40984,7 @@
       </c>
       <c r="C329" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.25">
@@ -41104,7 +41104,7 @@
       </c>
       <c r="C339" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
@@ -41128,7 +41128,7 @@
       </c>
       <c r="C341" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.25">
@@ -41152,7 +41152,7 @@
       </c>
       <c r="C343" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.25">
@@ -41164,7 +41164,7 @@
       </c>
       <c r="C344" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.25">
@@ -41188,7 +41188,7 @@
       </c>
       <c r="C346" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.25">
@@ -41212,7 +41212,7 @@
       </c>
       <c r="C348" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.25">
@@ -41380,7 +41380,7 @@
       </c>
       <c r="C362" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -41392,7 +41392,7 @@
       </c>
       <c r="C363" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -41524,7 +41524,7 @@
       </c>
       <c r="C374" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -41536,7 +41536,7 @@
       </c>
       <c r="C375" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -41572,7 +41572,7 @@
       </c>
       <c r="C378" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -41596,7 +41596,7 @@
       </c>
       <c r="C380" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -41620,7 +41620,7 @@
       </c>
       <c r="C382" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -41632,7 +41632,7 @@
       </c>
       <c r="C383" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -41656,7 +41656,7 @@
       </c>
       <c r="C385" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -41668,7 +41668,7 @@
       </c>
       <c r="C386" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -41679,8 +41679,8 @@
         <v>27750</v>
       </c>
       <c r="C387" s="10" t="str">
-        <f t="shared" ref="C387:C450" si="6">IF(B387&lt;8250,"Nível 1","Nível2")</f>
-        <v>Nível2</v>
+        <f t="shared" ref="C387:C450" si="6">IF(B387&lt;8250,"Nível 1","Nível 2")</f>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -41716,7 +41716,7 @@
       </c>
       <c r="C390" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -41728,7 +41728,7 @@
       </c>
       <c r="C391" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -41800,7 +41800,7 @@
       </c>
       <c r="C397" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -41824,7 +41824,7 @@
       </c>
       <c r="C399" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -41956,7 +41956,7 @@
       </c>
       <c r="C410" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -41968,7 +41968,7 @@
       </c>
       <c r="C411" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -41980,7 +41980,7 @@
       </c>
       <c r="C412" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -42004,7 +42004,7 @@
       </c>
       <c r="C414" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -42016,7 +42016,7 @@
       </c>
       <c r="C415" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -42052,7 +42052,7 @@
       </c>
       <c r="C418" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -42088,7 +42088,7 @@
       </c>
       <c r="C421" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -42100,7 +42100,7 @@
       </c>
       <c r="C422" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -42124,7 +42124,7 @@
       </c>
       <c r="C424" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.25">
@@ -42160,7 +42160,7 @@
       </c>
       <c r="C427" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -42184,7 +42184,7 @@
       </c>
       <c r="C429" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -42268,7 +42268,7 @@
       </c>
       <c r="C436" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -42304,7 +42304,7 @@
       </c>
       <c r="C439" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -42352,7 +42352,7 @@
       </c>
       <c r="C443" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.25">
@@ -42447,7 +42447,7 @@
         <v>5750</v>
       </c>
       <c r="C451" s="10" t="str">
-        <f t="shared" ref="C451:C514" si="7">IF(B451&lt;8250,"Nível 1","Nível2")</f>
+        <f t="shared" ref="C451:C514" si="7">IF(B451&lt;8250,"Nível 1","Nível 2")</f>
         <v>Nível 1</v>
       </c>
     </row>
@@ -42460,7 +42460,7 @@
       </c>
       <c r="C452" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
@@ -42532,7 +42532,7 @@
       </c>
       <c r="C458" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -42556,7 +42556,7 @@
       </c>
       <c r="C460" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -42592,7 +42592,7 @@
       </c>
       <c r="C463" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -42652,7 +42652,7 @@
       </c>
       <c r="C468" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -42712,7 +42712,7 @@
       </c>
       <c r="C473" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -42736,7 +42736,7 @@
       </c>
       <c r="C475" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -42748,7 +42748,7 @@
       </c>
       <c r="C476" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -42820,7 +42820,7 @@
       </c>
       <c r="C482" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
@@ -42832,7 +42832,7 @@
       </c>
       <c r="C483" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
@@ -42856,7 +42856,7 @@
       </c>
       <c r="C485" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -42964,7 +42964,7 @@
       </c>
       <c r="C494" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -42976,7 +42976,7 @@
       </c>
       <c r="C495" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -42988,7 +42988,7 @@
       </c>
       <c r="C496" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -43012,7 +43012,7 @@
       </c>
       <c r="C498" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -43036,7 +43036,7 @@
       </c>
       <c r="C500" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -43048,7 +43048,7 @@
       </c>
       <c r="C501" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
@@ -43060,7 +43060,7 @@
       </c>
       <c r="C502" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
@@ -43120,7 +43120,7 @@
       </c>
       <c r="C507" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
@@ -43132,7 +43132,7 @@
       </c>
       <c r="C508" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
@@ -43156,7 +43156,7 @@
       </c>
       <c r="C510" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
@@ -43168,7 +43168,7 @@
       </c>
       <c r="C511" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
@@ -43192,7 +43192,7 @@
       </c>
       <c r="C513" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
@@ -43204,7 +43204,7 @@
       </c>
       <c r="C514" s="10" t="str">
         <f t="shared" si="7"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
@@ -43215,7 +43215,7 @@
         <v>4750</v>
       </c>
       <c r="C515" s="10" t="str">
-        <f t="shared" ref="C515:C578" si="8">IF(B515&lt;8250,"Nível 1","Nível2")</f>
+        <f t="shared" ref="C515:C578" si="8">IF(B515&lt;8250,"Nível 1","Nível 2")</f>
         <v>Nível 1</v>
       </c>
     </row>
@@ -43228,7 +43228,7 @@
       </c>
       <c r="C516" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
@@ -43240,7 +43240,7 @@
       </c>
       <c r="C517" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
@@ -43300,7 +43300,7 @@
       </c>
       <c r="C522" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
@@ -43348,7 +43348,7 @@
       </c>
       <c r="C526" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
@@ -43384,7 +43384,7 @@
       </c>
       <c r="C529" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
@@ -43396,7 +43396,7 @@
       </c>
       <c r="C530" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
@@ -43408,7 +43408,7 @@
       </c>
       <c r="C531" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
@@ -43432,7 +43432,7 @@
       </c>
       <c r="C533" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
@@ -43468,7 +43468,7 @@
       </c>
       <c r="C536" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
@@ -43504,7 +43504,7 @@
       </c>
       <c r="C539" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
@@ -43516,7 +43516,7 @@
       </c>
       <c r="C540" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
@@ -43588,7 +43588,7 @@
       </c>
       <c r="C546" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
@@ -43660,7 +43660,7 @@
       </c>
       <c r="C552" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
@@ -43720,7 +43720,7 @@
       </c>
       <c r="C557" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
@@ -43840,7 +43840,7 @@
       </c>
       <c r="C567" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
@@ -43876,7 +43876,7 @@
       </c>
       <c r="C570" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
@@ -43948,7 +43948,7 @@
       </c>
       <c r="C576" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
@@ -43972,7 +43972,7 @@
       </c>
       <c r="C578" s="10" t="str">
         <f t="shared" si="8"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
@@ -43983,8 +43983,8 @@
         <v>24250</v>
       </c>
       <c r="C579" s="10" t="str">
-        <f t="shared" ref="C579:C618" si="9">IF(B579&lt;8250,"Nível 1","Nível2")</f>
-        <v>Nível2</v>
+        <f t="shared" ref="C579:C618" si="9">IF(B579&lt;8250,"Nível 1","Nível 2")</f>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
@@ -44056,7 +44056,7 @@
       </c>
       <c r="C585" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
@@ -44092,7 +44092,7 @@
       </c>
       <c r="C588" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
@@ -44104,7 +44104,7 @@
       </c>
       <c r="C589" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
@@ -44140,7 +44140,7 @@
       </c>
       <c r="C592" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
@@ -44236,7 +44236,7 @@
       </c>
       <c r="C600" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
@@ -44260,7 +44260,7 @@
       </c>
       <c r="C602" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
@@ -44284,7 +44284,7 @@
       </c>
       <c r="C604" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
@@ -44308,7 +44308,7 @@
       </c>
       <c r="C606" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
@@ -44320,7 +44320,7 @@
       </c>
       <c r="C607" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
@@ -44344,7 +44344,7 @@
       </c>
       <c r="C609" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
@@ -44356,7 +44356,7 @@
       </c>
       <c r="C610" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
@@ -44392,7 +44392,7 @@
       </c>
       <c r="C613" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
@@ -44452,7 +44452,7 @@
       </c>
       <c r="C618" s="10" t="str">
         <f t="shared" si="9"/>
-        <v>Nível2</v>
+        <v>Nível 2</v>
       </c>
     </row>
   </sheetData>
@@ -44466,7 +44466,7 @@
   <dimension ref="A1:H618"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51948,7 +51948,7 @@
   <dimension ref="A1:F2335"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -77709,7 +77709,7 @@
   <dimension ref="A1:J169"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -80177,7 +80177,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81477,7 +81477,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -81496,22 +81496,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>3866</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="D1" s="62" t="s">
+      <c r="B1" s="63"/>
+      <c r="D1" s="63" t="s">
         <v>3867</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="G1" s="62" t="s">
+      <c r="E1" s="63"/>
+      <c r="G1" s="63" t="s">
         <v>3868</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="J1" s="62" t="s">
+      <c r="H1" s="63"/>
+      <c r="J1" s="63" t="s">
         <v>3869</v>
       </c>
-      <c r="K1" s="62"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
